--- a/openai-api-prompts.xlsx
+++ b/openai-api-prompts.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/170f7a28a1da3c0c/Proj/nlp-benchmarking/nlp-llm-benchmarking-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{405C17C6-F54C-45A1-9FF0-1A971F19B960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B315F836-6037-496B-B5A6-468E016BA9E1}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{405C17C6-F54C-45A1-9FF0-1A971F19B960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A7BCE9A-A9DA-4455-982D-63917711F75B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC576F5F-906C-4D43-9312-E28CA819ABBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EC576F5F-906C-4D43-9312-E28CA819ABBE}"/>
   </bookViews>
   <sheets>
     <sheet name="one-shot" sheetId="1" r:id="rId1"/>
+    <sheet name="more-examples" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>unique_name</t>
   </si>
@@ -106,6 +107,57 @@
   </si>
   <si>
     <t>Career coach Ellen Gordon Reeves wants you to get a job for Christmas. With more than 15 million Americans out of work, competition is fierce. If can you get yourself invited to an office party, fabulous. Accords to consumer reports, Americans will spend on average 15 hours at holiday gatherings this year. Etiquette expert Peter Post says it doesn't have to be gosh to network for a job at those parties.</t>
+  </si>
+  <si>
+    <t>sentiment_ekmans_emo</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>You are a bot that classifies text sentiment as one of ekman's  emotions. Return only one word to the user that best describes the emotion of the text they provide from: joy, surprise, neutral, sadness, fear, anger, disgust</t>
+  </si>
+  <si>
+    <t>You had no right to take that money from my account</t>
+  </si>
+  <si>
+    <t>anger</t>
+  </si>
+  <si>
+    <t>sentiment_pnn</t>
+  </si>
+  <si>
+    <t>You are a bot that classifies text sentiment as either very positive, positive, neutral, negative, very negative.</t>
+  </si>
+  <si>
+    <t>very negative</t>
+  </si>
+  <si>
+    <t>Oh my god, I am losing my mind.</t>
+  </si>
+  <si>
+    <t>Oh, yeah, during the summer, I spend most weekends at my sister’s beach house, which you are welcome to use by the way.</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>Uh, are you crazy? Are you insane? If you live with Phoebe, you two are gonna be y'know, live-living together!</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>Okay, umm, it's this tragic love story between Cathy and Heathcliff and umm, it takes place on like these really creepy mores in England.</t>
+  </si>
+  <si>
+    <t>sadness</t>
+  </si>
+  <si>
+    <t>just hold on one moment please</t>
   </si>
 </sst>
 </file>
@@ -494,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98F0DBD-FF2A-43AF-A187-C58D7C21584D}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -578,8 +630,139 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="57.6">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF9011A-169D-4FB1-B29F-AEC1778CF270}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="28.8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>